--- a/medicine/Mort/Nécropole_de_Duratón/Nécropole_de_Duratón.xlsx
+++ b/medicine/Mort/Nécropole_de_Duratón/Nécropole_de_Duratón.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>N%C3%A9cropole_de_Durat%C3%B3n</t>
+          <t>Nécropole_de_Duratón</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La nécropole de Duratón (en espagnol : Necrópolis [visigoda] de Duratón) est une nécropole wisigothique située à Duratón (es), dans la province de Ségovie, en Castille.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>N%C3%A9cropole_de_Durat%C3%B3n</t>
+          <t>Nécropole_de_Duratón</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Située près de l'ancienne cité romaine de Confluenta (es) (ou Confluentia), la nécropole fut découverte en 1929 par un paysan qui travaillait la terre à proximité de l'église Nuestra Señora de la AsunciónÉglise Nuestra Señora de la Asunción, une église romane érigée en 1203 à l'emplacement du site.
 Les fouilles menées dans les années 1940 par l'archéologue espagnol Antonio Molinero Pérez ont mis au jour pas moins de 666 sépultures datant d'une période allant de la seconde moitié du Ve siècle au milieu du VIe siècle, correspondant au début de l'implantation des Wisigoths dans la péninsule Ibérique.
